--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_20-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_20-02.xlsx
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>انجرام40</t>
@@ -3582,13 +3588,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3600,7 +3606,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3608,13 +3614,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3626,7 +3632,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3634,17 +3640,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3666,11 +3672,11 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3686,13 +3692,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3704,7 +3710,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3712,17 +3718,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3738,17 +3744,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3756,7 +3762,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3764,17 +3770,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3790,17 +3796,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3808,7 +3814,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3816,13 +3822,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3834,7 +3840,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3848,11 +3854,11 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3860,7 +3866,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3868,17 +3874,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3894,17 +3900,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3912,7 +3918,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3920,17 +3926,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3938,7 +3944,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3946,13 +3952,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -3972,13 +3978,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -3990,7 +3996,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3998,13 +4004,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4012,37 +4018,63 @@
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
-      <c r="K118" s="11">
-        <v>6618.4399999999996</v>
-      </c>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-    </row>
-    <row r="119" ht="17.25" customHeight="1">
-      <c t="s" r="A119" s="12">
-        <v>152</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c t="s" r="F119" s="13">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
         <v>153</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c t="s" r="I119" s="15">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
+        <v>49</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>30</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c r="N118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="K119" s="11">
+        <v>6663.4399999999996</v>
+      </c>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="12">
         <v>154</v>
       </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c t="s" r="F120" s="13">
+        <v>155</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c t="s" r="I120" s="15">
+        <v>156</v>
+      </c>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="353">
+  <mergeCells count="356">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4392,10 +4424,13 @@
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:N119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="I120:N120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
